--- a/inventario reparaciones/registro.xlsx
+++ b/inventario reparaciones/registro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>fecha</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>usuario</t>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>responsable</t>
         </is>
       </c>
     </row>
@@ -464,174 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>BAJEN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>frank fuentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>frank fuentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-01-20, 20:22</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>frank fuentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>jorgito</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B6" t="n">
-        <v>22</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>frank fuentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>frank fuentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>99</v>
-      </c>
-      <c r="B8" t="n">
-        <v>99</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>jorge fuentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-01-21</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>super_usuario</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2024-01-21</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>jorge fuentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2024-01-21</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>jorge fuentes</t>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>JORGE FUENTES</t>
         </is>
       </c>
     </row>

--- a/inventario reparaciones/registro.xlsx
+++ b/inventario reparaciones/registro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,48 +436,283 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>reparaciones asp</t>
+          <t>fecha</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>reparaciones ama</t>
+          <t>camaronera</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sector</t>
+          <t>clase</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>fecha</t>
+          <t>recibidas</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>reparadas</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>descartadas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>responsable</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AFRICA</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>AMA</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>JORGE FUENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AFRICA </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ASP</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>JORGE FUENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AFRICA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ASP</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>JORGE FUENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ASP</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>JORGE FUENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>BAJEN</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ASP</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>JORGE FUENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AFRICA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ASP</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>JORGE FUENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AFRICA </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ASP</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>JORGE FUENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AFRICA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ASP</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>JORGE FUENTES</t>
         </is>
